--- a/lib/xlsx/test/test10.xlsx
+++ b/lib/xlsx/test/test10.xlsx
@@ -395,6 +395,11 @@
         <c:ser>
           <c:idx>1</c:idx>
           <c:order>1</c:order>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheetWithChart2!$A$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng" w="19050">
               <a:solidFill>
@@ -432,6 +437,11 @@
         <c:ser>
           <c:idx>2</c:idx>
           <c:order>2</c:order>
+          <c:tx>
+            <c:strRef>
+              <c:f>sheetWithChart2!$A$2</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln cmpd="sng" w="19050">
               <a:solidFill>
